--- a/contents/format/sample.xlsx
+++ b/contents/format/sample.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="50220"/>
 </workbook>
 </file>
 
